--- a/www.eia.gov/petroleum/production/xls/table1.xlsx
+++ b/www.eia.gov/petroleum/production/xls/table1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas02\OEA\MLW\Documents\EIA-914 Survey Expansion\Webpage Docs\December 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas01\OES\mcr\Documents\914\2017.01_Final Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -919,7 +919,7 @@
   <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1070,7 +1070,9 @@
       <c r="K6" s="13">
         <v>24</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6" s="13">
+        <v>23</v>
+      </c>
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1107,7 +1109,9 @@
       <c r="K7" s="16">
         <v>495</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="16">
+        <v>513</v>
+      </c>
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1144,7 +1148,9 @@
       <c r="K8" s="16">
         <v>0</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1181,7 +1187,9 @@
       <c r="K9" s="16">
         <v>14</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="16">
+        <v>14</v>
+      </c>
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1218,7 +1226,9 @@
       <c r="K10" s="16">
         <v>505</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="16">
+        <v>505</v>
+      </c>
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1255,7 +1265,9 @@
       <c r="K11" s="16">
         <v>316</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="16">
+        <v>307</v>
+      </c>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1292,7 +1304,9 @@
       <c r="K12" s="16">
         <v>5</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="16">
+        <v>5</v>
+      </c>
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1329,7 +1343,9 @@
       <c r="K13" s="16">
         <v>23</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="16">
+        <v>23</v>
+      </c>
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1366,7 +1382,9 @@
       <c r="K14" s="16">
         <v>5</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="16">
+        <v>5</v>
+      </c>
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1403,7 +1421,9 @@
       <c r="K15" s="16">
         <v>97</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16">
+        <v>95</v>
+      </c>
       <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1440,7 +1460,9 @@
       <c r="K16" s="16">
         <v>7</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="16">
+        <v>6</v>
+      </c>
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1477,7 +1499,9 @@
       <c r="K17" s="16">
         <v>153</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="16">
+        <v>145</v>
+      </c>
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1514,7 +1538,9 @@
       <c r="K18" s="16">
         <v>15</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="16">
+        <v>15</v>
+      </c>
       <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1546,12 +1572,14 @@
         <v>59</v>
       </c>
       <c r="J19" s="16">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" s="16">
-        <v>57</v>
-      </c>
-      <c r="L19" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="L19" s="16">
+        <v>55</v>
+      </c>
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1588,7 +1616,9 @@
       <c r="K20" s="16">
         <v>0</v>
       </c>
-      <c r="L20" s="16"/>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1625,7 +1655,9 @@
       <c r="K21" s="16">
         <v>61</v>
       </c>
-      <c r="L21" s="16"/>
+      <c r="L21" s="16">
+        <v>61</v>
+      </c>
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1662,7 +1694,9 @@
       <c r="K22" s="16">
         <v>6</v>
       </c>
-      <c r="L22" s="16"/>
+      <c r="L22" s="16">
+        <v>6</v>
+      </c>
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1699,7 +1733,9 @@
       <c r="K23" s="16">
         <v>1</v>
       </c>
-      <c r="L23" s="16"/>
+      <c r="L23" s="16">
+        <v>1</v>
+      </c>
       <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1731,12 +1767,14 @@
         <v>395</v>
       </c>
       <c r="J24" s="16">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K24" s="16">
-        <v>410</v>
-      </c>
-      <c r="L24" s="16"/>
+        <v>409</v>
+      </c>
+      <c r="L24" s="16">
+        <v>417</v>
+      </c>
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1773,7 +1811,9 @@
       <c r="K25" s="16">
         <v>1</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="16">
+        <v>1</v>
+      </c>
       <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1810,7 +1850,9 @@
       <c r="K26" s="16">
         <v>1036</v>
       </c>
-      <c r="L26" s="16"/>
+      <c r="L26" s="16">
+        <v>1029</v>
+      </c>
       <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1847,7 +1889,9 @@
       <c r="K27" s="16">
         <v>49</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="16">
+        <v>48</v>
+      </c>
       <c r="M27" s="16"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1879,12 +1923,14 @@
         <v>424</v>
       </c>
       <c r="J28" s="16">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K28" s="16">
-        <v>424</v>
-      </c>
-      <c r="L28" s="16"/>
+        <v>422</v>
+      </c>
+      <c r="L28" s="16">
+        <v>422</v>
+      </c>
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1921,7 +1967,9 @@
       <c r="K29" s="16">
         <v>15</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="16">
+        <v>16</v>
+      </c>
       <c r="M29" s="16"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1958,7 +2006,9 @@
       <c r="K30" s="16">
         <v>4</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="16">
+        <v>4</v>
+      </c>
       <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1995,7 +2045,9 @@
       <c r="K31" s="16">
         <v>1</v>
       </c>
-      <c r="L31" s="16"/>
+      <c r="L31" s="16">
+        <v>1</v>
+      </c>
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -2027,12 +2079,14 @@
         <v>3170</v>
       </c>
       <c r="J32" s="16">
-        <v>3159</v>
+        <v>3152</v>
       </c>
       <c r="K32" s="16">
-        <v>3182</v>
-      </c>
-      <c r="L32" s="16"/>
+        <v>3175</v>
+      </c>
+      <c r="L32" s="16">
+        <v>3195</v>
+      </c>
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2069,7 +2123,9 @@
       <c r="K33" s="16">
         <v>86</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="16">
+        <v>83</v>
+      </c>
       <c r="M33" s="16"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2106,7 +2162,9 @@
       <c r="K34" s="16">
         <v>0</v>
       </c>
-      <c r="L34" s="16"/>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
       <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2143,7 +2201,9 @@
       <c r="K35" s="16">
         <v>21</v>
       </c>
-      <c r="L35" s="16"/>
+      <c r="L35" s="16">
+        <v>21</v>
+      </c>
       <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2175,12 +2235,14 @@
         <v>187</v>
       </c>
       <c r="J36" s="16">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K36" s="16">
-        <v>191</v>
-      </c>
-      <c r="L36" s="16"/>
+        <v>192</v>
+      </c>
+      <c r="L36" s="16">
+        <v>192</v>
+      </c>
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2232,9 +2294,11 @@
         <v>1506</v>
       </c>
       <c r="K38" s="16">
-        <v>1590</v>
-      </c>
-      <c r="L38" s="16"/>
+        <v>1591</v>
+      </c>
+      <c r="L38" s="16">
+        <v>1681</v>
+      </c>
       <c r="M38" s="16"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2266,12 +2330,14 @@
         <v>18</v>
       </c>
       <c r="J39" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K39" s="16">
+        <v>16</v>
+      </c>
+      <c r="L39" s="16">
         <v>14</v>
       </c>
-      <c r="L39" s="16"/>
       <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2303,12 +2369,14 @@
         <v>8759</v>
       </c>
       <c r="J40" s="31">
-        <v>8575</v>
+        <v>8567</v>
       </c>
       <c r="K40" s="31">
-        <v>8807</v>
-      </c>
-      <c r="L40" s="31"/>
+        <v>8799</v>
+      </c>
+      <c r="L40" s="31">
+        <v>8904</v>
+      </c>
       <c r="M40" s="31"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
